--- a/friqa_data.xlsx
+++ b/friqa_data.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quade\Documents\GitHub\CapstoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571905D-A4CF-4914-B851-8513805C5A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB353B8F-58CE-41FB-8BC7-495CF7350ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SSIM" sheetId="1" r:id="rId1"/>
-    <sheet name="MSE" sheetId="2" r:id="rId2"/>
-    <sheet name="PSNR" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="SSIM" sheetId="1" r:id="rId2"/>
+    <sheet name="MSE" sheetId="2" r:id="rId3"/>
+    <sheet name="PSNR" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SSIM Score</t>
   </si>
@@ -31,6 +32,9 @@
   </si>
   <si>
     <t>PSNR Score</t>
+  </si>
+  <si>
+    <t>File Sizes</t>
   </si>
 </sst>
 </file>
@@ -109,6 +113,1379 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SSIM!$A$40:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>File Sizes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>SSIM!$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F13B-402E-86D7-FB613BA715AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2045409664"/>
+        <c:axId val="168130416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2045409664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168130416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168130416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045409664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PSNR Scores for WebP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Compressed Images</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>PSNR!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.855900884330858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.663250427589148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.619415911578109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.385911016075468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.386762699328827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1D0-4A9E-9BA4-B379C45E4107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1134915744"/>
+        <c:axId val="1298106720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1134915744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Image Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298106720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1298106720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>PSNR Scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134915744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>File Sizes for Original</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Images and Latent Representations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Latent Representations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SSIM!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB61-478F-91FD-4432D135B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Original Images</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{95E5423A-69CD-40D4-A1A4-3927D0B4C810}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AB61-478F-91FD-4432D135B235}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>SSIM!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB61-478F-91FD-4432D135B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="569993408"/>
+        <c:axId val="516710976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="569993408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Image Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516710976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516710976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>File Size (kB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569993408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -613,7 +1990,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1068,7 +2445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1503,7 +2880,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1962,7 +3339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2002,7 +3379,7 @@
                 </a:solidFill>
                 <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>MSE Scores for VAE Compressed Images</a:t>
+              <a:t>MSE Scores for PNG Compressed Images</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2422,7 +3799,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2532,47 +3909,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-2C6F-45B7-8AF6-5DFB24C8329C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2966,7 +4302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3442,7 +4778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3918,483 +5254,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PSNR Scores for WebP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Compressed Images</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>PSNR!$A$12:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>37.855900884330858</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.663250427589148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.619415911578109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.385911016075468</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.386762699328827</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1D0-4A9E-9BA4-B379C45E4107}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1134915744"/>
-        <c:axId val="1298106720"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1134915744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Image Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1298106720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1298106720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>PSNR Scores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1134915744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5257,7 +6197,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5760,7 +6700,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6263,7 +7203,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6766,7 +7706,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7269,7 +8209,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7772,7 +8712,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8275,7 +9215,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8778,7 +9718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9281,7 +10221,1057 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23256579-DB09-40FC-8DBC-ADE3C9E46859}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566283E4-0C63-6C41-0F64-360EA74C1C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9619,6 +11609,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F0E603-0434-8207-AD8E-9D24FC8BF1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9907,10 +11933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9993,6 +12019,51 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.99151826676706423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13.7</v>
+      </c>
+      <c r="B41">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14.6</v>
+      </c>
+      <c r="B42">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.2</v>
+      </c>
+      <c r="B43">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15.2</v>
+      </c>
+      <c r="B44">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/friqa_data.xlsx
+++ b/friqa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quade\Documents\GitHub\CapstoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB353B8F-58CE-41FB-8BC7-495CF7350ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0D7E-6BD2-4EFC-A052-CCC1B5BE479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,7 +2030,7 @@
                 </a:solidFill>
                 <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>SSIM Scores for PNG Compressed Images</a:t>
+              <a:t>SSIM Scores for JPEG Compressed Images</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3379,7 +3379,7 @@
                 </a:solidFill>
                 <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>MSE Scores for PNG Compressed Images</a:t>
+              <a:t>MSE Scores for JPEG Compressed Images</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4818,7 +4818,7 @@
                 </a:solidFill>
                 <a:latin typeface="Helvetica" panose="020B0500000000000000" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>PSNR Scores for PNG Compressed Images</a:t>
+              <a:t>PSNR Scores for JPEG Compressed Images</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11935,7 +11935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>

--- a/friqa_data.xlsx
+++ b/friqa_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quade\Documents\GitHub\CapstoneProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\CapstoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0D7E-6BD2-4EFC-A052-CCC1B5BE479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4ACDB7-C32F-4613-BFE7-4FD0D2F2A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Original Images</c:v>
+            <c:v>Original JPEG Compressed Images</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -11935,98 +11935,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.72299598648593943</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.64485688816228581</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.83753452566929509</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.42330157452120831</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.95639665519514649</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.99922735124586415</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.99949589425044372</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.99884480609023663</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.99986218224882994</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.99942796485278418</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.96300781802126034</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.9783304446868939</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.92326495705399703</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.98118762816100047</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.99151826676706423</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13.7</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14.6</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14.2</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15.2</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12080,84 +12080,84 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40.824714660644531</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>53.103107452392578</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>17.466949462890621</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>87.615589141845703</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10.682285308837891</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1068115234375</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.10807037353515619</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.11346435546875</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.54742431640625E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.810333251953125E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10.653450012207029</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.13666915893555</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7.0980453491210938</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14.944770812988279</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.3681221008300781</v>
       </c>
@@ -12175,84 +12175,84 @@
       <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>32.021572028968187</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30.87960425286628</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>35.708632971623189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>28.704989752941302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>37.844161876842193</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>57.844622514773519</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>57.793737082991342</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>57.582209103917492</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>58.331941365140878</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>61.309051962464913</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>37.855900884330858</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>37.663250427589148</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>39.619415911578109</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36.385911016075468</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>44.386762699328827</v>
       </c>
